--- a/data/trans_orig/Q17B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Estudios-trans_orig.xlsx
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,46</t>
+          <t>0,36; 0,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,42</t>
+          <t>0,34; 0,41</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,26</t>
+          <t>0,14; 0,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,31</t>
+          <t>0,22; 0,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,27</t>
+          <t>0,19; 0,28</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,38</t>
+          <t>0,28; 0,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,27</t>
+          <t>0,18; 0,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,34</t>
+          <t>0,26; 0,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,3</t>
+          <t>0,24; 0,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q17B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Estudios-trans_orig.xlsx
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,41</t>
+          <t>0,34; 0,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,52</t>
+          <t>0,41; 0,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,59</t>
+          <t>0,42; 0,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,53</t>
+          <t>0,44; 0,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 0,6</t>
+          <t>0,48; 0,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,55</t>
+          <t>0,46; 0,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,41</t>
+          <t>0,34; 0,42</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,2</t>
+          <t>0,16; 0,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,26</t>
+          <t>0,21; 0,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,42</t>
+          <t>0,34; 0,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,35</t>
+          <t>0,21; 0,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,32</t>
+          <t>0,28; 0,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,36</t>
+          <t>0,3; 0,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,3</t>
+          <t>0,2; 0,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,31</t>
+          <t>0,21; 0,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,35</t>
+          <t>0,24; 0,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,3</t>
+          <t>0,2; 0,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,28</t>
+          <t>0,2; 0,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,27</t>
+          <t>0,23; 0,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,36</t>
+          <t>0,27; 0,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
